--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3685.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3685.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.283434018586733</v>
+        <v>3.786498546600342</v>
       </c>
       <c r="B1">
-        <v>2.773503383581569</v>
+        <v>4.403322696685791</v>
       </c>
       <c r="C1">
-        <v>8.453215274377813</v>
+        <v>3.117683172225952</v>
       </c>
       <c r="D1">
-        <v>2.051356200402854</v>
+        <v>2.429234266281128</v>
       </c>
       <c r="E1">
-        <v>1.105714378541186</v>
+        <v>2.139770746231079</v>
       </c>
     </row>
   </sheetData>
